--- a/problemset.xlsx
+++ b/problemset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKYPC364\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2B264-7ACD-47A8-BF45-CC386B851D36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE2A12-B1EC-4C68-9CBA-08BD6F56E043}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{690C8CBD-A29C-4164-B2E0-FF96263864A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="127">
   <si>
     <t>SunshineCTF 2021</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,9 +207,6 @@
     <t>comlink</t>
   </si>
   <si>
-    <t>parking</t>
-  </si>
-  <si>
     <t>PCIVault 1</t>
   </si>
   <si>
@@ -217,13 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>filestore</t>
-  </si>
-  <si>
-    <t>raid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shellcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zippi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atheris</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,37 +254,192 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hexagon</t>
+    <t>empty-ls</t>
+  </si>
+  <si>
+    <t>letschatmessages</t>
+  </si>
+  <si>
+    <t>security-driven</t>
+  </si>
+  <si>
+    <t>H1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>polymorph</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weather</t>
+    <t>Filestore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>empty-ls-admin</t>
-  </si>
-  <si>
-    <t>empty-ls-xss-bot</t>
-  </si>
-  <si>
-    <t>empty-ls</t>
-  </si>
-  <si>
-    <t>letschatmessages</t>
-  </si>
-  <si>
-    <t>letschatserver</t>
-  </si>
-  <si>
-    <t>security-driven</t>
-  </si>
-  <si>
-    <t>H1</t>
+    <t>Solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gpushop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAIDers of corruption</t>
+  </si>
+  <si>
+    <t>David and the Tree</t>
+  </si>
+  <si>
+    <t>Hexagon</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Polymorph</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>LCG_k</t>
+  </si>
+  <si>
+    <t>babypad</t>
+  </si>
+  <si>
+    <t>babyrand</t>
+  </si>
+  <si>
+    <t>babyrsa</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>dividing_secrets</t>
+  </si>
+  <si>
+    <t>fibinary</t>
+  </si>
+  <si>
+    <t>fried_rice</t>
+  </si>
+  <si>
+    <t>leave_it_to_chance</t>
+  </si>
+  <si>
+    <t>mystery_stream</t>
+  </si>
+  <si>
+    <t>flagbot</t>
+  </si>
+  <si>
+    <t>maotiplication</t>
+  </si>
+  <si>
+    <t>smogofwar</t>
+  </si>
+  <si>
+    <t>yeetcode</t>
+  </si>
+  <si>
+    <t>chainblock</t>
+  </si>
+  <si>
+    <t>cshell</t>
+  </si>
+  <si>
+    <t>fire-of-salvation</t>
+  </si>
+  <si>
+    <t>helpless</t>
+  </si>
+  <si>
+    <t>outfoxed</t>
+  </si>
+  <si>
+    <t>ret2cds</t>
+  </si>
+  <si>
+    <t>rusty</t>
+  </si>
+  <si>
+    <t>wall-of-perdition</t>
+  </si>
+  <si>
+    <t>AliceInCeptionland</t>
+  </si>
+  <si>
+    <t>AliceInSleeperio</t>
+  </si>
+  <si>
+    <t>babyrev</t>
+  </si>
+  <si>
+    <t>circus</t>
+  </si>
+  <si>
+    <t>generic_obfuscator</t>
+  </si>
+  <si>
+    <t>vmquack</t>
+  </si>
+  <si>
+    <t>vmstack</t>
+  </si>
+  <si>
+    <t>zoom_zoom_vision</t>
+  </si>
+  <si>
+    <t>blogme</t>
+  </si>
+  <si>
+    <t>buyme</t>
+  </si>
+  <si>
+    <t>devme</t>
+  </si>
+  <si>
+    <t>drinkme</t>
+  </si>
+  <si>
+    <t>findme</t>
+  </si>
+  <si>
+    <t>mathme</t>
+  </si>
+  <si>
+    <t>msgme</t>
+  </si>
+  <si>
+    <t>phpme</t>
+  </si>
+  <si>
+    <t>readme</t>
+  </si>
+  <si>
+    <t>saasme</t>
+  </si>
+  <si>
+    <t>styleme</t>
+  </si>
+  <si>
+    <t>corCTF 2021</t>
+  </si>
+  <si>
+    <t>supercomputer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +447,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -499,21 +640,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -656,10 +782,62 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -674,7 +852,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,118 +871,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,8 +988,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,44 +1087,11 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -879,9 +1105,9 @@
     <mruColors>
       <color rgb="FF00FFFF"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FFFF9900"/>
       <color rgb="FFFF0066"/>
       <color rgb="FF9966FF"/>
+      <color rgb="FFFF9900"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1192,20 +1418,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF0351B-F750-4379-B2DA-087143FE3895}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75" thickBot="1">
+    <row r="1" spans="1:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>14</v>
       </c>
@@ -1230,28 +1456,31 @@
       <c r="H1" s="35" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1">
+    <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="75" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -1276,8 +1505,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="49"/>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="76"/>
       <c r="B11" s="20" t="s">
         <v>1</v>
       </c>
@@ -1288,8 +1517,8 @@
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="49"/>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
       <c r="B12" s="21" t="s">
         <v>2</v>
       </c>
@@ -1312,8 +1541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="49"/>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="76"/>
       <c r="B13" s="22" t="s">
         <v>3</v>
       </c>
@@ -1336,8 +1565,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="49"/>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="76"/>
       <c r="B14" s="23" t="s">
         <v>4</v>
       </c>
@@ -1348,8 +1577,8 @@
       <c r="G14" s="9"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="49"/>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="76"/>
       <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
@@ -1360,8 +1589,8 @@
       <c r="G15" s="9"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A16" s="49"/>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="76"/>
       <c r="B16" s="24" t="s">
         <v>6</v>
       </c>
@@ -1372,8 +1601,8 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="49"/>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="76"/>
       <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
@@ -1385,8 +1614,8 @@
       <c r="H17" s="10"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="49"/>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="76"/>
       <c r="B18" s="25" t="s">
         <v>8</v>
       </c>
@@ -1397,8 +1626,8 @@
       <c r="G18" s="9"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="49"/>
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="76"/>
       <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
@@ -1409,8 +1638,8 @@
       <c r="G19" s="9"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="49"/>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="76"/>
       <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
@@ -1433,8 +1662,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="49"/>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="76"/>
       <c r="B21" s="27" t="s">
         <v>11</v>
       </c>
@@ -1457,8 +1686,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="49"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="76"/>
       <c r="B22" s="27" t="s">
         <v>12</v>
       </c>
@@ -1481,9 +1710,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="17.25" thickBot="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="77"/>
+      <c r="B23" s="65" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="28"/>
@@ -1493,101 +1722,161 @@
       <c r="G23" s="29"/>
       <c r="H23" s="30"/>
     </row>
-    <row r="24" spans="1:10" ht="17.25">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="3" t="s">
+      <c r="C24" s="42">
+        <v>0</v>
+      </c>
+      <c r="D24" s="43">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="76"/>
+      <c r="B25" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.25">
-      <c r="A26" s="49"/>
-      <c r="B26" s="3" t="s">
+      <c r="C25" s="42">
+        <v>0</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="76"/>
+      <c r="B26" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="3" t="s">
+      <c r="C26" s="42">
+        <v>0</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="76"/>
+      <c r="B27" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="3" t="s">
+      <c r="C27" s="42">
+        <v>0</v>
+      </c>
+      <c r="D27" s="43">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="76"/>
+      <c r="B28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.25">
-      <c r="A29" s="49"/>
+      <c r="C28" s="42">
+        <v>0</v>
+      </c>
+      <c r="D28" s="43">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="76"/>
       <c r="B29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:10" ht="17.25">
-      <c r="A30" s="49"/>
+    <row r="30" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="76"/>
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="13"/>
     </row>
-    <row r="31" spans="1:10" ht="17.25">
-      <c r="A31" s="49"/>
+    <row r="31" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="76"/>
       <c r="B31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="44">
-        <v>0</v>
-      </c>
-      <c r="D31" s="45">
+      <c r="C31" s="42">
+        <v>0</v>
+      </c>
+      <c r="D31" s="43">
         <v>0</v>
       </c>
       <c r="E31" s="12">
@@ -1603,87 +1892,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="17.25">
-      <c r="A32" s="49"/>
+    <row r="32" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="76"/>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="39" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="76"/>
+      <c r="B33" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="39" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="76"/>
+      <c r="B34" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="39" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A35" s="76"/>
+      <c r="B35" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="39" t="s">
+      <c r="C35" s="42">
+        <v>0</v>
+      </c>
+      <c r="D35" s="43">
+        <v>0</v>
+      </c>
+      <c r="E35" s="12">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="76"/>
+      <c r="B36" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="39" t="s">
+      <c r="C36" s="42">
+        <v>0</v>
+      </c>
+      <c r="D36" s="43">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="76"/>
+      <c r="B37" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.25">
-      <c r="A38" s="49"/>
+      <c r="C37" s="42">
+        <v>0</v>
+      </c>
+      <c r="D37" s="43">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="76"/>
       <c r="B38" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="44">
-        <v>0</v>
-      </c>
-      <c r="D38" s="45">
+      <c r="C38" s="42">
+        <v>0</v>
+      </c>
+      <c r="D38" s="43">
         <v>0</v>
       </c>
       <c r="E38" s="12">
@@ -1699,15 +2024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25">
-      <c r="A39" s="49"/>
+    <row r="39" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="76"/>
       <c r="B39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="44">
-        <v>0</v>
-      </c>
-      <c r="D39" s="45">
+      <c r="C39" s="42">
+        <v>0</v>
+      </c>
+      <c r="D39" s="43">
         <v>0</v>
       </c>
       <c r="E39" s="12">
@@ -1723,15 +2048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25">
-      <c r="A40" s="49"/>
+    <row r="40" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="76"/>
       <c r="B40" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="44">
-        <v>0</v>
-      </c>
-      <c r="D40" s="45">
+      <c r="C40" s="42">
+        <v>0</v>
+      </c>
+      <c r="D40" s="43">
         <v>0</v>
       </c>
       <c r="E40" s="12">
@@ -1747,15 +2072,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25">
-      <c r="A41" s="49"/>
+    <row r="41" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="76"/>
       <c r="B41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="44">
-        <v>0</v>
-      </c>
-      <c r="D41" s="45">
+      <c r="C41" s="42">
+        <v>0</v>
+      </c>
+      <c r="D41" s="43">
         <v>0</v>
       </c>
       <c r="E41" s="12">
@@ -1771,15 +2096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25">
-      <c r="A42" s="49"/>
+    <row r="42" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A42" s="76"/>
       <c r="B42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="44">
-        <v>0</v>
-      </c>
-      <c r="D42" s="45">
+      <c r="C42" s="42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="43">
         <v>0</v>
       </c>
       <c r="E42" s="12">
@@ -1795,15 +2120,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25">
-      <c r="A43" s="49"/>
+    <row r="43" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="76"/>
       <c r="B43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="44">
-        <v>0</v>
-      </c>
-      <c r="D43" s="45">
+      <c r="C43" s="42">
+        <v>0</v>
+      </c>
+      <c r="D43" s="43">
         <v>0</v>
       </c>
       <c r="E43" s="12">
@@ -1819,15 +2144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25">
-      <c r="A44" s="49"/>
+    <row r="44" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="76"/>
       <c r="B44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="44">
-        <v>0</v>
-      </c>
-      <c r="D44" s="45">
+      <c r="C44" s="42">
+        <v>0</v>
+      </c>
+      <c r="D44" s="43">
         <v>0</v>
       </c>
       <c r="E44" s="12">
@@ -1843,89 +2168,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="40" t="s">
+    <row r="45" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="76"/>
+      <c r="B45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
     </row>
-    <row r="46" spans="1:8" ht="17.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="76"/>
+      <c r="B46" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="45"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="43"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
       <c r="H46" s="13"/>
     </row>
-    <row r="47" spans="1:8" ht="17.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="40" t="s">
+    <row r="47" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="76"/>
+      <c r="B47" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
       <c r="H47" s="13"/>
     </row>
-    <row r="48" spans="1:8" ht="18" thickBot="1">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51" t="s">
+    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="77"/>
+      <c r="B48" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="47"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="15"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A49" s="48" t="s">
+    <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="44">
-        <v>0</v>
-      </c>
-      <c r="D49" s="45">
-        <v>0</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0</v>
-      </c>
-      <c r="F49" s="12">
-        <v>0</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A50" s="49"/>
-      <c r="B50" s="53" t="s">
+      <c r="B49" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="40">
+        <v>0</v>
+      </c>
+      <c r="D49" s="41">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="56">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="79"/>
+      <c r="B50" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="44">
-        <v>0</v>
-      </c>
-      <c r="D50" s="45">
+      <c r="C50" s="42">
+        <v>0</v>
+      </c>
+      <c r="D50" s="43">
         <v>0</v>
       </c>
       <c r="E50" s="12">
@@ -1940,16 +2268,19 @@
       <c r="H50" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A51" s="49"/>
-      <c r="B51" s="53" t="s">
+      <c r="I50" s="57">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="79"/>
+      <c r="B51" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="44">
-        <v>0</v>
-      </c>
-      <c r="D51" s="45">
+      <c r="C51" s="42">
+        <v>0</v>
+      </c>
+      <c r="D51" s="43">
         <v>0</v>
       </c>
       <c r="E51" s="12">
@@ -1964,16 +2295,19 @@
       <c r="H51" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A52" s="49"/>
-      <c r="B52" s="53" t="s">
+      <c r="I51" s="57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="79"/>
+      <c r="B52" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="44">
-        <v>0</v>
-      </c>
-      <c r="D52" s="45">
+      <c r="C52" s="42">
+        <v>0</v>
+      </c>
+      <c r="D52" s="43">
         <v>0</v>
       </c>
       <c r="E52" s="12">
@@ -1988,16 +2322,19 @@
       <c r="H52" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A53" s="49"/>
-      <c r="B53" s="53" t="s">
+      <c r="I52" s="57">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="79"/>
+      <c r="B53" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="44">
-        <v>0</v>
-      </c>
-      <c r="D53" s="45">
+      <c r="C53" s="42">
+        <v>0</v>
+      </c>
+      <c r="D53" s="43">
         <v>0</v>
       </c>
       <c r="E53" s="12">
@@ -2012,336 +2349,1450 @@
       <c r="H53" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A54" s="49"/>
+      <c r="I53" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="79"/>
       <c r="B54" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="60"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A55" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="79"/>
       <c r="B55" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="42">
+        <v>0</v>
+      </c>
+      <c r="D55" s="43">
+        <v>0</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="79"/>
+      <c r="B56" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="58"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="60"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A56" s="49"/>
-      <c r="B56" s="54" t="s">
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="79"/>
+      <c r="B57" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A57" s="49"/>
-      <c r="B57" s="54" t="s">
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="79"/>
+      <c r="B58" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="42">
+        <v>0</v>
+      </c>
+      <c r="D58" s="43">
+        <v>0</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="58">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="79"/>
+      <c r="B59" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="42">
+        <v>0</v>
+      </c>
+      <c r="D59" s="43">
+        <v>0</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" s="57">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="79"/>
+      <c r="B60" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A58" s="49"/>
-      <c r="B58" s="17" t="s">
+      <c r="C60" s="50"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="79"/>
+      <c r="B61" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="60"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A59" s="49"/>
-      <c r="B59" s="54" t="s">
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="52"/>
+      <c r="I61" s="57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="79"/>
+      <c r="B62" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0</v>
+      </c>
+      <c r="D62" s="43">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="13">
+        <v>0</v>
+      </c>
+      <c r="I62" s="57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="79"/>
+      <c r="B63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="60"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A60" s="49"/>
-      <c r="B60" s="54" t="s">
+      <c r="C63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="57">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="79"/>
+      <c r="B64" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="60"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A61" s="49"/>
-      <c r="B61" s="54" t="s">
+      <c r="C64" s="42">
+        <v>0</v>
+      </c>
+      <c r="D64" s="43">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13">
+        <v>0</v>
+      </c>
+      <c r="I64" s="58">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="79"/>
+      <c r="B65" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="60"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A62" s="49"/>
-      <c r="B62" s="54" t="s">
+      <c r="C65" s="50"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="79"/>
+      <c r="B66" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A63" s="49"/>
-      <c r="B63" s="3" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="57">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="79"/>
+      <c r="B67" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="60"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A64" s="49"/>
-      <c r="B64" s="3" t="s">
+      <c r="C67" s="42">
+        <v>0</v>
+      </c>
+      <c r="D67" s="43">
+        <v>0</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0</v>
+      </c>
+      <c r="H67" s="13">
+        <v>0</v>
+      </c>
+      <c r="I67" s="57">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="79"/>
+      <c r="B68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="44">
-        <v>0</v>
-      </c>
-      <c r="D64" s="45">
-        <v>0</v>
-      </c>
-      <c r="E64" s="12">
-        <v>0</v>
-      </c>
-      <c r="F64" s="12">
-        <v>0</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A65" s="49"/>
-      <c r="B65" s="3" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="79"/>
+      <c r="B69" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="60"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A66" s="49"/>
-      <c r="B66" s="3" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="79"/>
+      <c r="B70" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="60"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A67" s="49"/>
-      <c r="B67" s="3" t="s">
+      <c r="C70" s="42">
+        <v>0</v>
+      </c>
+      <c r="D70" s="43">
+        <v>0</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12">
+        <v>0</v>
+      </c>
+      <c r="H70" s="13">
+        <v>0</v>
+      </c>
+      <c r="I70" s="57">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="79"/>
+      <c r="B71" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="42">
+        <v>0</v>
+      </c>
+      <c r="D71" s="43">
+        <v>0</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12">
+        <v>0</v>
+      </c>
+      <c r="H71" s="13">
+        <v>0</v>
+      </c>
+      <c r="I71" s="57">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="79"/>
+      <c r="B72" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="42">
+        <v>0</v>
+      </c>
+      <c r="D72" s="43">
+        <v>0</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12">
+        <v>0</v>
+      </c>
+      <c r="H72" s="13">
+        <v>0</v>
+      </c>
+      <c r="I72" s="57">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="79"/>
+      <c r="B73" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="42">
+        <v>0</v>
+      </c>
+      <c r="D73" s="43">
+        <v>0</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12">
+        <v>0</v>
+      </c>
+      <c r="H73" s="13">
+        <v>0</v>
+      </c>
+      <c r="I73" s="57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="79"/>
+      <c r="B74" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="79"/>
+      <c r="B75" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="58"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A68" s="49"/>
-      <c r="B68" s="3" t="s">
+      <c r="C75" s="50"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="57">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="79"/>
+      <c r="B76" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="58"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A69" s="49"/>
-      <c r="B69" s="55" t="s">
+      <c r="C76" s="50"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="79"/>
+      <c r="B77" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="58"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="60"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A70" s="49"/>
-      <c r="B70" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" s="58"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="60"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A71" s="49"/>
-      <c r="B71" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="60"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A72" s="49"/>
-      <c r="B72" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A73" s="49"/>
-      <c r="B73" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" s="58"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="60"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A74" s="49"/>
-      <c r="B74" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="60"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A75" s="49"/>
-      <c r="B75" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="60"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A76" s="49"/>
-      <c r="B76" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="60"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A77" s="49"/>
-      <c r="B77" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="58"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="60"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A78" s="49"/>
-      <c r="B78" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C78" s="58"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="60"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A79" s="50"/>
-      <c r="B79" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="61"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
-      <c r="H79" s="63"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="70">
+        <v>4096</v>
+      </c>
+      <c r="C78" s="42">
+        <v>0</v>
+      </c>
+      <c r="D78" s="43">
+        <v>0</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+      <c r="H78" s="13">
+        <v>0</v>
+      </c>
+      <c r="I78" s="56">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="76"/>
+      <c r="B79" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="54"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="76"/>
+      <c r="B80" s="72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="76"/>
+      <c r="B81" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A82" s="76"/>
+      <c r="B82" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="42">
+        <v>0</v>
+      </c>
+      <c r="D82" s="43">
+        <v>0</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="13">
+        <v>0</v>
+      </c>
+      <c r="I82" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="76"/>
+      <c r="B83" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="76"/>
+      <c r="B84" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="57">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A85" s="76"/>
+      <c r="B85" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" s="42">
+        <v>0</v>
+      </c>
+      <c r="D85" s="43">
+        <v>0</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13">
+        <v>0</v>
+      </c>
+      <c r="I85" s="57"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="76"/>
+      <c r="B86" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="51"/>
+      <c r="F86" s="51"/>
+      <c r="G86" s="51"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="76"/>
+      <c r="B87" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="76"/>
+      <c r="B88" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="51"/>
+      <c r="D88" s="51"/>
+      <c r="E88" s="51"/>
+      <c r="F88" s="51"/>
+      <c r="G88" s="51"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="76"/>
+      <c r="B89" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="57">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="76"/>
+      <c r="B90" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" s="42">
+        <v>0</v>
+      </c>
+      <c r="D90" s="43">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12">
+        <v>0</v>
+      </c>
+      <c r="H90" s="13">
+        <v>0</v>
+      </c>
+      <c r="I90" s="57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="76"/>
+      <c r="B91" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="57"/>
+    </row>
+    <row r="92" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="76"/>
+      <c r="B92" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" s="42">
+        <v>0</v>
+      </c>
+      <c r="D92" s="43">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12">
+        <v>0</v>
+      </c>
+      <c r="H92" s="13">
+        <v>0</v>
+      </c>
+      <c r="I92" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="76"/>
+      <c r="B93" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="57"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="76"/>
+      <c r="B94" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" s="51"/>
+      <c r="D94" s="51"/>
+      <c r="E94" s="51"/>
+      <c r="F94" s="51"/>
+      <c r="G94" s="51"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="57"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="76"/>
+      <c r="B95" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="57"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="76"/>
+      <c r="B96" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A97" s="76"/>
+      <c r="B97" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="42">
+        <v>0</v>
+      </c>
+      <c r="D97" s="43">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="13">
+        <v>0</v>
+      </c>
+      <c r="I97" s="57"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="76"/>
+      <c r="B98" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A99" s="76"/>
+      <c r="B99" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="42">
+        <v>0</v>
+      </c>
+      <c r="D99" s="43">
+        <v>0</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>0</v>
+      </c>
+      <c r="G99" s="12">
+        <v>0</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
+      </c>
+      <c r="I99" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A100" s="76"/>
+      <c r="B100" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="42">
+        <v>0</v>
+      </c>
+      <c r="D100" s="43">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
+        <v>0</v>
+      </c>
+      <c r="G100" s="12">
+        <v>0</v>
+      </c>
+      <c r="H100" s="13">
+        <v>0</v>
+      </c>
+      <c r="I100" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="76"/>
+      <c r="B101" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A102" s="76"/>
+      <c r="B102" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="42">
+        <v>0</v>
+      </c>
+      <c r="D102" s="43">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>0</v>
+      </c>
+      <c r="G102" s="12">
+        <v>0</v>
+      </c>
+      <c r="H102" s="13">
+        <v>0</v>
+      </c>
+      <c r="I102" s="57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A103" s="76"/>
+      <c r="B103" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="42">
+        <v>0</v>
+      </c>
+      <c r="D103" s="43">
+        <v>0</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <v>0</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13">
+        <v>0</v>
+      </c>
+      <c r="I103" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A104" s="76"/>
+      <c r="B104" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" s="42">
+        <v>0</v>
+      </c>
+      <c r="D104" s="43">
+        <v>0</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12">
+        <v>0</v>
+      </c>
+      <c r="G104" s="12">
+        <v>0</v>
+      </c>
+      <c r="H104" s="13">
+        <v>0</v>
+      </c>
+      <c r="I104" s="57">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A105" s="76"/>
+      <c r="B105" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="42">
+        <v>0</v>
+      </c>
+      <c r="D105" s="43">
+        <v>0</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0</v>
+      </c>
+      <c r="H105" s="13">
+        <v>0</v>
+      </c>
+      <c r="I105" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A106" s="76"/>
+      <c r="B106" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="42">
+        <v>0</v>
+      </c>
+      <c r="D106" s="43">
+        <v>0</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12">
+        <v>0</v>
+      </c>
+      <c r="G106" s="12">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="76"/>
+      <c r="B107" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="42">
+        <v>0</v>
+      </c>
+      <c r="D107" s="43">
+        <v>0</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0</v>
+      </c>
+      <c r="H107" s="13">
+        <v>0</v>
+      </c>
+      <c r="I107" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A108" s="76"/>
+      <c r="B108" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" s="42">
+        <v>0</v>
+      </c>
+      <c r="D108" s="43">
+        <v>0</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0</v>
+      </c>
+      <c r="H108" s="13">
+        <v>0</v>
+      </c>
+      <c r="I108" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A109" s="76"/>
+      <c r="B109" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="42">
+        <v>0</v>
+      </c>
+      <c r="D109" s="43">
+        <v>0</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
+        <v>0</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0</v>
+      </c>
+      <c r="H109" s="13">
+        <v>0</v>
+      </c>
+      <c r="I109" s="57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="76"/>
+      <c r="B110" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="42">
+        <v>0</v>
+      </c>
+      <c r="D110" s="43">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0</v>
+      </c>
+      <c r="H110" s="13">
+        <v>0</v>
+      </c>
+      <c r="I110" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="76"/>
+      <c r="B111" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="42">
+        <v>0</v>
+      </c>
+      <c r="D111" s="43">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0</v>
+      </c>
+      <c r="H111" s="13">
+        <v>0</v>
+      </c>
+      <c r="I111" s="57">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A112" s="76"/>
+      <c r="B112" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" s="42">
+        <v>0</v>
+      </c>
+      <c r="D112" s="43">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0</v>
+      </c>
+      <c r="H112" s="13">
+        <v>0</v>
+      </c>
+      <c r="I112" s="57"/>
+    </row>
+    <row r="113" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A113" s="76"/>
+      <c r="B113" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="42">
+        <v>0</v>
+      </c>
+      <c r="D113" s="43">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12">
+        <v>0</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0</v>
+      </c>
+      <c r="H113" s="13">
+        <v>0</v>
+      </c>
+      <c r="I113" s="57"/>
+    </row>
+    <row r="114" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A114" s="76"/>
+      <c r="B114" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="42">
+        <v>0</v>
+      </c>
+      <c r="D114" s="43">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0</v>
+      </c>
+      <c r="F114" s="12">
+        <v>0</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0</v>
+      </c>
+      <c r="H114" s="13">
+        <v>0</v>
+      </c>
+      <c r="I114" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="76"/>
+      <c r="B115" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="42">
+        <v>0</v>
+      </c>
+      <c r="D115" s="43">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12">
+        <v>0</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0</v>
+      </c>
+      <c r="H115" s="13">
+        <v>0</v>
+      </c>
+      <c r="I115" s="57"/>
+    </row>
+    <row r="116" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="76"/>
+      <c r="B116" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="42">
+        <v>0</v>
+      </c>
+      <c r="D116" s="43">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0</v>
+      </c>
+      <c r="H116" s="13">
+        <v>0</v>
+      </c>
+      <c r="I116" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A117" s="76"/>
+      <c r="B117" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="42">
+        <v>0</v>
+      </c>
+      <c r="D117" s="43">
+        <v>0</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0</v>
+      </c>
+      <c r="H117" s="13">
+        <v>0</v>
+      </c>
+      <c r="I117" s="57">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A118" s="76"/>
+      <c r="B118" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" s="42">
+        <v>0</v>
+      </c>
+      <c r="D118" s="43">
+        <v>0</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0</v>
+      </c>
+      <c r="H118" s="13">
+        <v>0</v>
+      </c>
+      <c r="I118" s="57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="77"/>
+      <c r="B119" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="42">
+        <v>0</v>
+      </c>
+      <c r="D119" s="43">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12">
+        <v>0</v>
+      </c>
+      <c r="G119" s="12">
+        <v>0</v>
+      </c>
+      <c r="H119" s="13">
+        <v>0</v>
+      </c>
+      <c r="I119" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="73">
+        <v>0</v>
+      </c>
+      <c r="D120" s="73">
+        <v>0</v>
+      </c>
+      <c r="E120" s="73">
+        <v>0</v>
+      </c>
+      <c r="F120" s="73">
+        <v>0</v>
+      </c>
+      <c r="G120" s="73">
+        <v>0</v>
+      </c>
+      <c r="H120" s="74">
+        <v>0</v>
+      </c>
+      <c r="I120" s="59">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A10:A23"/>
     <mergeCell ref="A24:A48"/>
-    <mergeCell ref="A49:A79"/>
+    <mergeCell ref="A49:A77"/>
+    <mergeCell ref="A78:A119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2362,19 +3813,76 @@
     <hyperlink ref="B39" r:id="rId15" xr:uid="{8FF65E57-D8A5-49C6-8C2B-267BBD697418}"/>
     <hyperlink ref="B40" r:id="rId16" xr:uid="{B3F1E7CE-8513-4711-9C1C-7000EF7DFB41}"/>
     <hyperlink ref="B31" r:id="rId17" xr:uid="{8A944B1A-2338-40C6-8943-0E2F367BAC9F}"/>
-    <hyperlink ref="A49:A79" r:id="rId18" display="Google CTF 2021 Quals" xr:uid="{49CEF663-28F1-4DFE-BE4A-1538F94D5984}"/>
-    <hyperlink ref="B49" r:id="rId19" tooltip="crypto-H1" display="https://github.com/google/google-ctf/tree/master/2021/quals/crypto-H1" xr:uid="{A027AFBD-8F2D-485C-B003-AAE1E7833926}"/>
-    <hyperlink ref="B54" r:id="rId20" tooltip="hw-comlink" display="https://github.com/google/google-ctf/tree/master/2021/quals/hw-comlink" xr:uid="{D20BEF9C-38AD-4F1E-B819-698A1CCCF47E}"/>
-    <hyperlink ref="B55" r:id="rId21" tooltip="hw-parking" display="https://github.com/google/google-ctf/tree/master/2021/quals/hw-parking" xr:uid="{ED202B99-1910-41BA-A3FF-6A09C6927BCE}"/>
-    <hyperlink ref="B58" r:id="rId22" tooltip="misc-filestore" display="https://github.com/google/google-ctf/tree/master/2021/quals/misc-filestore" xr:uid="{A90A367B-25FB-474B-B188-C7A2824D27B0}"/>
-    <hyperlink ref="B74" r:id="rId23" tooltip="web-empty-ls-admin" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-empty-ls-admin" xr:uid="{2A499947-9793-4C4F-9DEA-416F5830B6D2}"/>
-    <hyperlink ref="B75" r:id="rId24" tooltip="web-empty-ls-xss-bot" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-empty-ls-xss-bot" xr:uid="{A41DE2A8-C5CA-4F92-8CF9-A127322DEF45}"/>
-    <hyperlink ref="B76" r:id="rId25" tooltip="web-empty-ls" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-empty-ls" xr:uid="{254FB2FC-5FA5-478C-AD6C-DBE5A34A248C}"/>
-    <hyperlink ref="B77" r:id="rId26" tooltip="web-letschatmessages" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-letschatmessages" xr:uid="{2A8E5D64-231C-4E33-9BC7-EDAA0D7CEB3A}"/>
-    <hyperlink ref="B78" r:id="rId27" tooltip="web-letschatserver" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-letschatserver" xr:uid="{0DFEBA3F-1B8E-4CEB-B9A3-84B2FE6E32A1}"/>
-    <hyperlink ref="B79" r:id="rId28" tooltip="web-security-driven" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-security-driven" xr:uid="{76D371B2-D349-44A8-87EB-C837117B2EC0}"/>
+    <hyperlink ref="B49" r:id="rId18" tooltip="crypto-H1" xr:uid="{A027AFBD-8F2D-485C-B003-AAE1E7833926}"/>
+    <hyperlink ref="B54" r:id="rId19" tooltip="hw-comlink" display="https://github.com/google/google-ctf/tree/master/2021/quals/hw-comlink" xr:uid="{D20BEF9C-38AD-4F1E-B819-698A1CCCF47E}"/>
+    <hyperlink ref="B55" r:id="rId20" tooltip="hw-parking" xr:uid="{ED202B99-1910-41BA-A3FF-6A09C6927BCE}"/>
+    <hyperlink ref="B58" r:id="rId21" tooltip="misc-filestore" xr:uid="{A90A367B-25FB-474B-B188-C7A2824D27B0}"/>
+    <hyperlink ref="B75" r:id="rId22" tooltip="web-letschatmessages" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-letschatmessages" xr:uid="{B4E378B1-FE40-4E94-9CA1-06719082E215}"/>
+    <hyperlink ref="B76" r:id="rId23" tooltip="web-security-driven" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-security-driven" xr:uid="{E73933F8-ECA2-4030-9071-AF44DF316C1F}"/>
+    <hyperlink ref="B77" r:id="rId24" tooltip="web-security-driven" display="https://github.com/google/google-ctf/tree/master/2021/quals/web-security-driven" xr:uid="{8B8A4B42-7F23-417E-AF6D-AF9687A831BD}"/>
+    <hyperlink ref="B53" r:id="rId25" xr:uid="{3A411681-D8BC-4E51-8647-146F9CD04B14}"/>
+    <hyperlink ref="B52" r:id="rId26" xr:uid="{1921891B-5FE5-42CC-AA30-AF8764B60F97}"/>
+    <hyperlink ref="B51" r:id="rId27" xr:uid="{28688956-6568-42EF-AA7B-C196CBE3F189}"/>
+    <hyperlink ref="B50" r:id="rId28" xr:uid="{5BE151E9-7CE8-4F44-B2B1-D737A3FFB7F8}"/>
+    <hyperlink ref="B59" r:id="rId29" xr:uid="{A1EB2FDD-25C0-4F2C-B344-B8AFC5FD16CA}"/>
+    <hyperlink ref="B62" r:id="rId30" xr:uid="{FBC80F6B-D4CB-4CFB-935E-739BD05BEAF7}"/>
+    <hyperlink ref="B71" r:id="rId31" xr:uid="{123DCF8F-273D-4726-B2AA-5707BD670BA5}"/>
+    <hyperlink ref="B73" r:id="rId32" xr:uid="{33F51F80-D1FB-4B48-BAFF-69573639EF3D}"/>
+    <hyperlink ref="B67" r:id="rId33" xr:uid="{3BE7CF13-1E2F-4D0D-87C6-7D610161EE58}"/>
+    <hyperlink ref="B72" r:id="rId34" xr:uid="{8FB96317-FB5C-4F2F-9529-0C00E8170EC8}"/>
+    <hyperlink ref="B24" r:id="rId35" xr:uid="{1BFEAEF1-5821-4744-9E59-AA5E89D6690D}"/>
+    <hyperlink ref="B25" r:id="rId36" xr:uid="{8C68AAEC-9597-4544-A3A7-A4E29D2B9D34}"/>
+    <hyperlink ref="B26" r:id="rId37" xr:uid="{DF3CF8F0-18EB-4DD2-A5CE-E6D8F64A5C7E}"/>
+    <hyperlink ref="B27" r:id="rId38" xr:uid="{260DFA5C-DAB0-4C36-AFDA-72A4B3A54D3C}"/>
+    <hyperlink ref="B28" r:id="rId39" xr:uid="{B484DD65-3E97-4948-BEDB-5A03ED2287BF}"/>
+    <hyperlink ref="B35" r:id="rId40" xr:uid="{B220EE56-522D-4CDF-95BE-638DEC9BD4B7}"/>
+    <hyperlink ref="B36" r:id="rId41" xr:uid="{93564D6E-D3E6-4C7F-9A71-5F5667D8CED8}"/>
+    <hyperlink ref="B37" r:id="rId42" xr:uid="{200A0C2D-968C-4C41-8CC2-B0862BFB745B}"/>
+    <hyperlink ref="B78" r:id="rId43" tooltip="4096" display="https://ctf-archive.com/problems/197" xr:uid="{C75BB327-D91F-46A1-8C94-E7E28512FFB7}"/>
+    <hyperlink ref="B79" r:id="rId44" tooltip="LCG_k" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/LCG_k" xr:uid="{07BF67E6-A085-47EC-B680-D42AEC33381A}"/>
+    <hyperlink ref="B80" r:id="rId45" tooltip="babypad" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/babypad" xr:uid="{1CFCDE1F-9F02-48FB-99BD-90F78EE8D7BF}"/>
+    <hyperlink ref="B81" r:id="rId46" tooltip="babyrand" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/babyrand" xr:uid="{549B7F1C-3C7B-47EF-9ACC-38868CF10214}"/>
+    <hyperlink ref="B82" r:id="rId47" tooltip="babyrsa" xr:uid="{332ADDCD-56DF-4FBA-94CC-A4251A16C31C}"/>
+    <hyperlink ref="B83" r:id="rId48" tooltip="bank" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/bank" xr:uid="{5236A709-2972-4A98-8E23-951093A41126}"/>
+    <hyperlink ref="B84" r:id="rId49" tooltip="dividing_secrets" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/dividing_secrets" xr:uid="{AC9B3437-D9C6-4EDC-87BD-BD469197DC53}"/>
+    <hyperlink ref="B85" r:id="rId50" tooltip="fibinary" xr:uid="{88ABA995-72DD-409D-AE3E-1385DB301F9B}"/>
+    <hyperlink ref="B86" r:id="rId51" tooltip="fried_rice" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/fried_rice" xr:uid="{CD7B29CD-844B-4F7F-8BEC-7D4C27B9D296}"/>
+    <hyperlink ref="B87" r:id="rId52" tooltip="leave_it_to_chance" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/leave_it_to_chance" xr:uid="{C4119E25-37F0-4C56-8DDD-069B9A862E02}"/>
+    <hyperlink ref="B88" r:id="rId53" tooltip="mystery_stream" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/crypto/mystery_stream" xr:uid="{5CEFA6DA-6192-4F57-9CF5-4FC838DFD9BD}"/>
+    <hyperlink ref="B90" r:id="rId54" tooltip="flagbot" xr:uid="{5C0CAA94-7063-4FB2-A9FA-D69126B41127}"/>
+    <hyperlink ref="B91" r:id="rId55" tooltip="maotiplication" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/misc/maotiplication" xr:uid="{10AA55DE-D690-4403-B1C8-43B997B5BB4C}"/>
+    <hyperlink ref="B92" r:id="rId56" tooltip="smogofwar" xr:uid="{230E1A71-0768-4366-9D09-0B91CEFB946B}"/>
+    <hyperlink ref="B93" r:id="rId57" tooltip="yeetcode" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/misc/yeetcode" xr:uid="{333A68DB-B095-4D31-AE61-CBD7B1D9E2F4}"/>
+    <hyperlink ref="B94" r:id="rId58" tooltip="chainblock" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/pwn/chainblock" xr:uid="{A8F18731-3782-4827-A6D0-A7A095450F4C}"/>
+    <hyperlink ref="B95" r:id="rId59" tooltip="cshell" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/pwn/cshell" xr:uid="{569FB634-80C2-4D3D-A7F6-5FA2ADF980D7}"/>
+    <hyperlink ref="B96" r:id="rId60" tooltip="fire-of-salvation" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/pwn/fire-of-salvation" xr:uid="{1316E1B6-A55D-47C0-9EBE-F6871BB5CF84}"/>
+    <hyperlink ref="B97" r:id="rId61" tooltip="helpless" xr:uid="{2572B578-8935-4E36-A84F-2C989B98280A}"/>
+    <hyperlink ref="B98" r:id="rId62" tooltip="outfoxed" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/pwn/outfoxed" xr:uid="{933576F5-7469-4C41-9FF3-D3AAB5F4D248}"/>
+    <hyperlink ref="B99" r:id="rId63" tooltip="ret2cds" xr:uid="{23625ECD-A047-4F06-84EA-E51C70168EA9}"/>
+    <hyperlink ref="B100" r:id="rId64" tooltip="rusty" xr:uid="{8CA89D88-88A6-47B5-A1B2-AF5B0CED4064}"/>
+    <hyperlink ref="B101" r:id="rId65" tooltip="wall-of-perdition" display="https://github.com/Crusaders-of-Rust/corCTF-2021-public-challenge-archive/tree/main/pwn/wall-of-perdition" xr:uid="{55325202-F3B1-45C1-AA34-B9FC064D926E}"/>
+    <hyperlink ref="B102" r:id="rId66" tooltip="AliceInCeptionland" xr:uid="{FB8DEFC2-B99E-4E87-9A91-9E1D974D1F66}"/>
+    <hyperlink ref="B103" r:id="rId67" tooltip="AliceInSleeperio" xr:uid="{B81C9C9C-D42A-4AB4-9867-AB90D7C16358}"/>
+    <hyperlink ref="B104" r:id="rId68" tooltip="babyrev" xr:uid="{A3B07334-C358-47B0-A921-7DE27AC50578}"/>
+    <hyperlink ref="B105" r:id="rId69" tooltip="circus" xr:uid="{275903A1-6F38-4DAB-880D-A3F7C7BE0C99}"/>
+    <hyperlink ref="B106" r:id="rId70" tooltip="generic_obfuscator" xr:uid="{928F557E-3BD2-40E4-81AD-CDD6FC860186}"/>
+    <hyperlink ref="B107" r:id="rId71" tooltip="vmquack" xr:uid="{12A3DC9C-D48D-4CFF-81C9-01BE1BBEB92B}"/>
+    <hyperlink ref="B108" r:id="rId72" tooltip="vmstack" xr:uid="{7EBD1D3C-33DC-4B58-93CE-63F2C5F8FBF9}"/>
+    <hyperlink ref="B109" r:id="rId73" tooltip="zoom_zoom_vision" xr:uid="{3BB48B20-0B3F-4F8C-BBED-C5AF830A762C}"/>
+    <hyperlink ref="B110" r:id="rId74" tooltip="blogme" xr:uid="{31DF8165-754B-4D80-8705-D59C7AEDD16A}"/>
+    <hyperlink ref="B111" r:id="rId75" tooltip="buyme" xr:uid="{5DFE0917-E2E7-495D-B81D-D7E59DE53E53}"/>
+    <hyperlink ref="B112" r:id="rId76" tooltip="devme" xr:uid="{05070E50-5AC5-4F08-B655-59A6AFD24B22}"/>
+    <hyperlink ref="B113" r:id="rId77" tooltip="drinkme" xr:uid="{4D42C4F7-2EEE-410D-AA3C-541B8C9E4B58}"/>
+    <hyperlink ref="B114" r:id="rId78" tooltip="findme" xr:uid="{9D46E659-8070-44A1-B2B6-9F54A1D2D383}"/>
+    <hyperlink ref="B115" r:id="rId79" tooltip="mathme" xr:uid="{8C430DF8-798C-416C-BF48-38B909E8BEAF}"/>
+    <hyperlink ref="B116" r:id="rId80" tooltip="msgme" xr:uid="{A270AC61-8E45-4C32-BE17-77F41C538B91}"/>
+    <hyperlink ref="B117" r:id="rId81" tooltip="phpme" xr:uid="{C1738FF8-D79D-49E2-A7FE-D8DC90370EC8}"/>
+    <hyperlink ref="B118" r:id="rId82" tooltip="readme" xr:uid="{524D1217-8FBB-4631-B222-B109AB65CE09}"/>
+    <hyperlink ref="B119" r:id="rId83" tooltip="saasme" xr:uid="{6991EB82-F3BC-4785-B957-A390E563336D}"/>
+    <hyperlink ref="B120" r:id="rId84" tooltip="styleme" xr:uid="{861B98C0-7664-44F3-8EBB-08BC1089582B}"/>
+    <hyperlink ref="A78:A119" r:id="rId85" display="corCTF 2021" xr:uid="{04CEBC14-C272-4223-8561-A381BA12E27C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId86"/>
 </worksheet>
 </file>